--- a/test/新建 Microsoft Excel 工作表.xlsx
+++ b/test/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\office_generator\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403CC5FF-17F9-437E-A370-4F9EAC6E195B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC5362F-BF16-47CA-8CA8-539C58ED2F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,28 @@
   </si>
   <si>
     <t>Sheet1</t>
+  </si>
+  <si>
+    <t>A
+A
+A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{AAAA|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloatingBBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -91,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,15 +398,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:I6"/>
+  <dimension ref="C1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
-        <v>0</v>
+    <row r="1" spans="3:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -390,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -401,9 +432,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -412,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -423,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -434,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>0</v>
       </c>
@@ -445,7 +476,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -456,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6708F7B-B77E-431C-AC41-7E4CAB47963B}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
